--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="82">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -98,6 +98,9 @@
     <t xml:space="preserve">create_v_equipe_point</t>
   </si>
   <si>
+    <t xml:space="preserve">create_coureur_categorie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Models</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t xml:space="preserve">model equipe_point</t>
   </si>
   <si>
+    <t xml:space="preserve">mode coureur_categorie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Backend</t>
   </si>
   <si>
@@ -210,6 +216,48 @@
   </si>
   <si>
     <t xml:space="preserve">Integration Equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_coureur_point_etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_equipe_point_etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model EquipePointEtape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model CoureurPointEtape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement par equipe par etape query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement par courseur par etape query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global schema setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Codegen setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement generale par etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_coureur_categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model VcoureurCategorie</t>
   </si>
   <si>
     <t xml:space="preserve">*Valeur en Minutes</t>
@@ -323,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,10 +409,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,14 +573,16 @@
       <c r="E4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G4" s="6" t="n">
         <f aca="false">E4-F4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
         <f aca="false">(F4/(F4+G4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -555,14 +601,16 @@
       <c r="E5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G5" s="6" t="n">
         <f aca="false">E5-F5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9" t="n">
         <f aca="false">(F5/(F5+G5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -581,14 +629,16 @@
       <c r="E6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" s="6" t="n">
         <f aca="false">E6-F6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9" t="n">
         <f aca="false">(F6/(F6+G6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -607,14 +657,16 @@
       <c r="E7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G7" s="6" t="n">
         <f aca="false">E7-F7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9" t="n">
         <f aca="false">(F7/(F7+G7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -633,14 +685,16 @@
       <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" s="6" t="n">
         <f aca="false">E8-F8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9" t="n">
         <f aca="false">(F8/(F8+G8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -659,14 +713,16 @@
       <c r="E9" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" s="6" t="n">
         <f aca="false">E9-F9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">(F9/(F9+G9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -685,14 +741,16 @@
       <c r="E10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" s="6" t="n">
         <f aca="false">E10-F10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="n">
         <f aca="false">(F10/(F10+G10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -711,14 +769,16 @@
       <c r="E11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G11" s="6" t="n">
         <f aca="false">E11-F11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="9" t="n">
         <f aca="false">(F11/(F11+G11))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -737,14 +797,15 @@
       <c r="E12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="G12" s="6" t="n">
-        <f aca="false">E12-F12</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9" t="n">
         <f aca="false">(F12/(F12+G12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -763,14 +824,15 @@
       <c r="E13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" s="6" t="n">
-        <f aca="false">E13-F13</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">(F13/(F13+G13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -789,14 +851,15 @@
       <c r="E14" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="G14" s="6" t="n">
-        <f aca="false">E14-F14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9" t="n">
         <f aca="false">(F14/(F14+G14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -815,14 +878,15 @@
       <c r="E15" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="G15" s="6" t="n">
-        <f aca="false">E15-F15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">(F15/(F15+G15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -841,41 +905,49 @@
       <c r="E16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G16" s="6" t="n">
         <f aca="false">E16-F16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">(F16/(F16+G16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="6" t="n">
         <f aca="false">E17-F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="9" t="e">
+      <c r="H17" s="9" t="n">
         <f aca="false">(F17/(F17+G17))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="n">
@@ -889,13 +961,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>0</v>
@@ -903,51 +975,53 @@
       <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G19" s="6" t="n">
-        <f aca="false">E19-F19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9" t="n">
         <f aca="false">(F19/(F19+G19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <f aca="false">E20-F20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9" t="n">
         <f aca="false">(F20/(F20+G20))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>0</v>
@@ -955,25 +1029,27 @@
       <c r="E21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="6" t="n">
         <f aca="false">E21-F21</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9" t="n">
         <f aca="false">(F21/(F21+G21))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>0</v>
@@ -981,25 +1057,26 @@
       <c r="E22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G22" s="6" t="n">
-        <f aca="false">E22-F22</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">(F22/(F22+G22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>0</v>
@@ -1007,207 +1084,227 @@
       <c r="E23" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G23" s="6" t="n">
-        <f aca="false">E23-F23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9" t="n">
         <f aca="false">(F23/(F23+G23))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G24" s="6" t="n">
-        <f aca="false">E24-F24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9" t="n">
         <f aca="false">(F24/(F24+G24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G25" s="6" t="n">
         <f aca="false">E25-F25</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="9" t="n">
         <f aca="false">(F25/(F25+G25))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G26" s="6" t="n">
-        <f aca="false">E26-F26</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="9" t="n">
         <f aca="false">(F26/(F26+G26))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G27" s="6" t="n">
         <f aca="false">E27-F27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9" t="n">
         <f aca="false">(F27/(F27+G27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
+      <c r="A28" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G28" s="6" t="n">
         <f aca="false">E28-F28</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="9" t="n">
         <f aca="false">(F28/(F28+G28))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>36</v>
+      <c r="A29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G29" s="6" t="n">
-        <f aca="false">E29-F29</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9" t="n">
         <f aca="false">(F29/(F29+G29))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G30" s="6" t="n">
         <f aca="false">E30-F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="9" t="e">
+      <c r="H30" s="9" t="n">
         <f aca="false">(F30/(F30+G30))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>39</v>
+      <c r="A31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6" t="n">
         <f aca="false">E31-F31</f>
         <v>10</v>
@@ -1218,22 +1315,22 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>39</v>
+      <c r="A32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6" t="n">
         <f aca="false">E32-F32</f>
         <v>10</v>
@@ -1244,48 +1341,50 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
+      <c r="A33" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" s="6" t="n">
         <f aca="false">E33-F33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="9" t="n">
         <f aca="false">(F33/(F33+G33))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
+      <c r="A34" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6" t="n">
         <f aca="false">E34-F34</f>
         <v>2</v>
@@ -1296,22 +1395,22 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>42</v>
+      <c r="A35" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6" t="n">
         <f aca="false">E35-F35</f>
         <v>2</v>
@@ -1322,22 +1421,22 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>46</v>
+      <c r="A36" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6" t="n">
         <f aca="false">E36-F36</f>
         <v>2</v>
@@ -1348,22 +1447,22 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>46</v>
+      <c r="A37" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="6" t="n">
         <f aca="false">E37-F37</f>
         <v>2</v>
@@ -1374,22 +1473,22 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>46</v>
+      <c r="A38" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6" t="n">
         <f aca="false">E38-F38</f>
         <v>5</v>
@@ -1400,22 +1499,22 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>49</v>
+      <c r="A39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="6" t="n">
         <f aca="false">E39-F39</f>
         <v>2</v>
@@ -1426,22 +1525,22 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>49</v>
+      <c r="A40" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="6" t="n">
         <f aca="false">E40-F40</f>
         <v>2</v>
@@ -1452,22 +1551,22 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>49</v>
+      <c r="A41" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D41" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="6" t="n">
         <f aca="false">E41-F41</f>
         <v>2</v>
@@ -1478,22 +1577,22 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>49</v>
+      <c r="A42" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="6" t="n">
         <f aca="false">E42-F42</f>
         <v>2</v>
@@ -1504,22 +1603,22 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>49</v>
+      <c r="A43" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6" t="n">
         <f aca="false">E43-F43</f>
         <v>2</v>
@@ -1530,22 +1629,22 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>56</v>
+      <c r="A44" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6" t="n">
         <f aca="false">E44-F44</f>
         <v>2</v>
@@ -1556,22 +1655,22 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>56</v>
+      <c r="A45" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="10"/>
+      <c r="E45" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6"/>
       <c r="G45" s="6" t="n">
         <f aca="false">E45-F45</f>
         <v>2</v>
@@ -1582,22 +1681,22 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>56</v>
+      <c r="A46" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="10"/>
+      <c r="E46" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6" t="n">
         <f aca="false">E46-F46</f>
         <v>2</v>
@@ -1608,22 +1707,22 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>56</v>
+      <c r="A47" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="E47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="6" t="n">
         <f aca="false">E47-F47</f>
         <v>2</v>
@@ -1634,22 +1733,22 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>56</v>
+      <c r="A48" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6" t="n">
         <f aca="false">E48-F48</f>
         <v>2</v>
@@ -1660,22 +1759,22 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>60</v>
+      <c r="A49" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6" t="n">
         <f aca="false">E49-F49</f>
         <v>5</v>
@@ -1686,22 +1785,22 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>60</v>
+      <c r="A50" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6" t="n">
         <f aca="false">E50-F50</f>
         <v>5</v>
@@ -1712,22 +1811,22 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>60</v>
+      <c r="A51" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E51" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6" t="n">
         <f aca="false">E51-F51</f>
         <v>5</v>
@@ -1738,22 +1837,22 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>60</v>
+      <c r="A52" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="10" t="n">
+      <c r="E52" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6" t="n">
         <f aca="false">E52-F52</f>
         <v>5</v>
@@ -1764,22 +1863,22 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>60</v>
+      <c r="A53" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="10" t="n">
+      <c r="E53" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6" t="n">
         <f aca="false">E53-F53</f>
         <v>5</v>
@@ -1790,22 +1889,22 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>62</v>
+      <c r="A54" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6" t="n">
         <f aca="false">E54-F54</f>
         <v>5</v>
@@ -1816,22 +1915,22 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>62</v>
+      <c r="A55" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="10" t="n">
+      <c r="E55" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6" t="n">
         <f aca="false">E55-F55</f>
         <v>5</v>
@@ -1842,22 +1941,22 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>62</v>
+      <c r="A56" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="10" t="n">
+      <c r="E56" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F56" s="10"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6" t="n">
         <f aca="false">E56-F56</f>
         <v>5</v>
@@ -1868,22 +1967,22 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>62</v>
+      <c r="A57" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E57" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6" t="n">
         <f aca="false">E57-F57</f>
         <v>5</v>
@@ -1894,22 +1993,22 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>62</v>
+      <c r="A58" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="C58" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D58" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E58" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6" t="n">
         <f aca="false">E58-F58</f>
         <v>5</v>
@@ -1919,75 +2018,397 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+    <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="E59" s="6" t="n">
-        <f aca="false">SUM(E4:E58)</f>
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="F59" s="6" t="n">
-        <f aca="false">SUM(F4:F58)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="6" t="n">
-        <f aca="false">SUM(G4:G58)</f>
-        <v>168</v>
-      </c>
-      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="n">
         <f aca="false">(F59/(F59+G59))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <f aca="false">E60-F60</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <f aca="false">(F60/(F60+G60))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="n">
+        <f aca="false">E61-F61</f>
+        <v>2</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <f aca="false">(F61/(F61+G61))</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <f aca="false">E62-F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <f aca="false">(F62/(F62+G62))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="n">
+        <f aca="false">E63-F63</f>
+        <v>4</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <f aca="false">(F63/(F63+G63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="n">
+        <f aca="false">E64-F64</f>
+        <v>4</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <f aca="false">(F64/(F64+G64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <f aca="false">E65-F65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <f aca="false">(F65/(F65+G65))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="12" t="n">
-        <f aca="false">E59</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="12" t="n">
-        <f aca="false">F59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="12" t="n">
-        <f aca="false">G59</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <f aca="false">E66-F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <f aca="false">(F66/(F66+G66))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="n">
+        <f aca="false">E67-F67</f>
+        <v>2</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <f aca="false">(F67/(F67+G67))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="n">
+        <f aca="false">E68-F68</f>
+        <v>2</v>
+      </c>
+      <c r="H68" s="9" t="n">
+        <f aca="false">(F68/(F68+G68))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="n">
+        <f aca="false">E69-F69</f>
+        <v>4</v>
+      </c>
+      <c r="H69" s="9" t="n">
+        <f aca="false">(F69/(F69+G69))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6" t="n">
+        <f aca="false">E70-F70</f>
+        <v>4</v>
+      </c>
+      <c r="H70" s="9" t="n">
+        <f aca="false">(F70/(F70+G70))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6" t="n">
+        <f aca="false">E71-F71</f>
+        <v>3</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <f aca="false">(F71/(F71+G71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="n">
+        <f aca="false">E72-F72</f>
+        <v>3</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <f aca="false">(F72/(F72+G72))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="n">
+        <f aca="false">SUM(E4:E64)</f>
+        <v>190</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <f aca="false">SUM(F4:F64)</f>
+        <v>99</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <f aca="false">SUM(G4:G64)</f>
+        <v>113</v>
+      </c>
+      <c r="H73" s="10" t="n">
+        <f aca="false">(F73/(F73+G73))</f>
+        <v>0.466981132075472</v>
+      </c>
+    </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2934,19 +3355,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <f aca="false">Feuil1!E73</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <f aca="false">Feuil1!F73</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <f aca="false">Feuil1!G73</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -185,37 +185,37 @@
     <t xml:space="preserve">Svelte</t>
   </si>
   <si>
+    <t xml:space="preserve">list des etapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page des etapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter temps to coureur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affecter joueur to etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeScript</t>
+  </si>
+  <si>
     <t xml:space="preserve">classement generale</t>
   </si>
   <si>
-    <t xml:space="preserve">list des etapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page des etapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter temps to coureur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend Equipe</t>
+    <t xml:space="preserve">Integration Equipe</t>
   </si>
   <si>
     <t xml:space="preserve">classement general</t>
   </si>
   <si>
     <t xml:space="preserve">classement par equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affecter joueur to etape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration Equipe</t>
   </si>
   <si>
     <t xml:space="preserve">create_v_coureur_point_etape</t>
@@ -371,56 +371,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,80 +499,80 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="1" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="n">
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <f aca="false">E4-F4</f>
         <v>0</v>
       </c>
@@ -586,25 +582,25 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="n">
+      <c r="D5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <f aca="false">E5-F5</f>
         <v>0</v>
       </c>
@@ -614,25 +610,25 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="n">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <f aca="false">E6-F6</f>
         <v>0</v>
       </c>
@@ -642,25 +638,25 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <f aca="false">E7-F7</f>
         <v>0</v>
       </c>
@@ -670,25 +666,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="n">
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <f aca="false">E8-F8</f>
         <v>0</v>
       </c>
@@ -698,25 +694,25 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6" t="n">
+      <c r="D9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <f aca="false">E9-F9</f>
         <v>0</v>
       </c>
@@ -726,25 +722,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="n">
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <f aca="false">E10-F10</f>
         <v>0</v>
       </c>
@@ -754,25 +750,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6" t="n">
+      <c r="D11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <f aca="false">E11-F11</f>
         <v>0</v>
       </c>
@@ -782,25 +778,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="n">
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="9" t="n">
@@ -809,25 +805,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="n">
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="9" t="n">
@@ -836,25 +832,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="D14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="9" t="n">
@@ -863,25 +859,25 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="9" t="n">
@@ -890,25 +886,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <f aca="false">E16-F16</f>
         <v>0</v>
       </c>
@@ -918,23 +914,23 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6" t="n">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <f aca="false">E17-F17</f>
         <v>0</v>
       </c>
@@ -944,13 +940,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="n">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="n">
         <f aca="false">E18-F18</f>
         <v>0</v>
       </c>
@@ -960,25 +956,25 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6" t="n">
+      <c r="D19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="9" t="n">
@@ -987,25 +983,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6" t="n">
+      <c r="D20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="9" t="n">
@@ -1014,25 +1010,25 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6" t="n">
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="n">
         <f aca="false">E21-F21</f>
         <v>0</v>
       </c>
@@ -1042,25 +1038,25 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6" t="n">
+      <c r="D22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="9" t="n">
@@ -1069,25 +1065,25 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6" t="n">
+      <c r="D23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="9" t="n">
@@ -1096,25 +1092,25 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="n">
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="9" t="n">
@@ -1123,25 +1119,25 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6" t="n">
+      <c r="D25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7" t="n">
         <f aca="false">E25-F25</f>
         <v>0</v>
       </c>
@@ -1151,25 +1147,25 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="6" t="n">
+      <c r="D26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="9" t="n">
@@ -1178,25 +1174,25 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6" t="n">
+      <c r="D27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7" t="n">
         <f aca="false">E27-F27</f>
         <v>0</v>
       </c>
@@ -1206,25 +1202,25 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="n">
+      <c r="D28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="7" t="n">
         <f aca="false">E28-F28</f>
         <v>0</v>
       </c>
@@ -1234,25 +1230,25 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="n">
+      <c r="D29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="9" t="n">
@@ -1261,25 +1257,25 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="6" t="n">
+      <c r="D30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="n">
         <f aca="false">E30-F30</f>
         <v>0</v>
       </c>
@@ -1289,23 +1285,23 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="D31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="n">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="n">
         <f aca="false">E31-F31</f>
         <v>10</v>
       </c>
@@ -1315,23 +1311,23 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="n">
+      <c r="D32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="n">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="n">
         <f aca="false">E32-F32</f>
         <v>10</v>
       </c>
@@ -1341,25 +1337,25 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6" t="n">
+      <c r="D33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
         <f aca="false">E33-F33</f>
         <v>0</v>
       </c>
@@ -1369,23 +1365,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="n">
+      <c r="D34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="n">
         <f aca="false">E34-F34</f>
         <v>2</v>
       </c>
@@ -1395,23 +1391,23 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="n">
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="n">
         <f aca="false">E35-F35</f>
         <v>2</v>
       </c>
@@ -1421,23 +1417,23 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="n">
+      <c r="D36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="n">
         <f aca="false">E36-F36</f>
         <v>2</v>
       </c>
@@ -1447,23 +1443,23 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6" t="n">
+      <c r="D37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="n">
         <f aca="false">E37-F37</f>
         <v>2</v>
       </c>
@@ -1473,23 +1469,23 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6" t="n">
+      <c r="D38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="n">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="n">
         <f aca="false">E38-F38</f>
         <v>5</v>
       </c>
@@ -1499,75 +1495,60 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6" t="n">
-        <f aca="false">E39-F39</f>
-        <v>2</v>
+      <c r="D39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H39" s="9" t="n">
         <f aca="false">(F39/(F39+G39))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="n">
-        <f aca="false">E40-F40</f>
-        <v>2</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <f aca="false">(F40/(F40+G40))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="n">
+      <c r="D41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="n">
         <f aca="false">E41-F41</f>
         <v>2</v>
       </c>
@@ -1577,23 +1558,23 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="n">
+      <c r="D42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="n">
         <f aca="false">E42-F42</f>
         <v>2</v>
       </c>
@@ -1603,23 +1584,23 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="n">
+      <c r="D43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="n">
         <f aca="false">E43-F43</f>
         <v>2</v>
       </c>
@@ -1629,101 +1610,71 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="n">
+      <c r="D44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="7" t="n">
         <f aca="false">E44-F44</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">(F44/(F44+G44))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="n">
-        <f aca="false">E45-F45</f>
-        <v>2</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <f aca="false">(F45/(F45+G45))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="n">
-        <f aca="false">E46-F46</f>
-        <v>2</v>
-      </c>
-      <c r="H46" s="9" t="n">
-        <f aca="false">(F46/(F46+G46))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="n">
+      <c r="D47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="n">
         <f aca="false">E47-F47</f>
         <v>2</v>
       </c>
@@ -1733,23 +1684,23 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="n">
+      <c r="D48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="n">
         <f aca="false">E48-F48</f>
         <v>2</v>
       </c>
@@ -1759,23 +1710,23 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6" t="n">
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="n">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="n">
         <f aca="false">E49-F49</f>
         <v>5</v>
       </c>
@@ -1785,23 +1736,23 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6" t="n">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="n">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="n">
         <f aca="false">E50-F50</f>
         <v>5</v>
       </c>
@@ -1811,23 +1762,23 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6" t="n">
+      <c r="A51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="n">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="n">
         <f aca="false">E51-F51</f>
         <v>5</v>
       </c>
@@ -1837,23 +1788,23 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6" t="n">
+      <c r="A52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="n">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="n">
         <f aca="false">E52-F52</f>
         <v>5</v>
       </c>
@@ -1863,23 +1814,23 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6" t="n">
+      <c r="A53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="n">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="n">
         <f aca="false">E53-F53</f>
         <v>5</v>
       </c>
@@ -1889,23 +1840,23 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6" t="n">
+      <c r="C54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="n">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="n">
         <f aca="false">E54-F54</f>
         <v>5</v>
       </c>
@@ -1915,23 +1866,23 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="A55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="C55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="n">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="n">
         <f aca="false">E55-F55</f>
         <v>5</v>
       </c>
@@ -1941,23 +1892,23 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="D56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="n">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="n">
         <f aca="false">E56-F56</f>
         <v>5</v>
       </c>
@@ -1967,23 +1918,23 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="6" t="n">
+      <c r="A57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="n">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="n">
         <f aca="false">E57-F57</f>
         <v>5</v>
       </c>
@@ -1993,23 +1944,23 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6" t="n">
+      <c r="A58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6" t="n">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="n">
         <f aca="false">E58-F58</f>
         <v>5</v>
       </c>
@@ -2019,25 +1970,25 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6" t="n">
+      <c r="D59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G59" s="6" t="n">
+      <c r="G59" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="9" t="n">
@@ -2046,25 +1997,25 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6" t="n">
+      <c r="D60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G60" s="6" t="n">
+      <c r="G60" s="7" t="n">
         <f aca="false">E60-F60</f>
         <v>0</v>
       </c>
@@ -2074,23 +2025,23 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6" t="n">
+      <c r="D61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="n">
         <f aca="false">E61-F61</f>
         <v>2</v>
       </c>
@@ -2100,25 +2051,25 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F62" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" s="6" t="n">
+      <c r="D62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7" t="n">
         <f aca="false">E62-F62</f>
         <v>0</v>
       </c>
@@ -2128,23 +2079,23 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6" t="n">
+      <c r="D63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6" t="n">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="n">
         <f aca="false">E63-F63</f>
         <v>4</v>
       </c>
@@ -2154,23 +2105,23 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6" t="n">
+      <c r="D64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="n">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="n">
         <f aca="false">E64-F64</f>
         <v>4</v>
       </c>
@@ -2180,25 +2131,25 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="n">
+      <c r="D65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G65" s="6" t="n">
+      <c r="G65" s="7" t="n">
         <f aca="false">E65-F65</f>
         <v>0</v>
       </c>
@@ -2208,25 +2159,25 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F66" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" s="6" t="n">
+      <c r="C66" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="7" t="n">
         <f aca="false">E66-F66</f>
         <v>0</v>
       </c>
@@ -2236,73 +2187,75 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6" t="n">
-        <f aca="false">E67-F67</f>
-        <v>2</v>
+      <c r="D67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H67" s="9" t="n">
         <f aca="false">(F67/(F67+G67))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6" t="n">
-        <f aca="false">E68-F68</f>
-        <v>2</v>
+      <c r="D68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G68" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H68" s="9" t="n">
-        <f aca="false">(F68/(F68+G68))</f>
-        <v>0</v>
+        <f aca="false">(F67/(F67+G68))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6" t="n">
+      <c r="B69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6" t="n">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7" t="n">
         <f aca="false">E69-F69</f>
         <v>4</v>
       </c>
@@ -2312,21 +2265,21 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="6" t="n">
+      <c r="C70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6" t="n">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7" t="n">
         <f aca="false">E70-F70</f>
         <v>4</v>
       </c>
@@ -2336,23 +2289,23 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6" t="n">
+      <c r="D71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6" t="n">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="n">
         <f aca="false">E71-F71</f>
         <v>3</v>
       </c>
@@ -2362,23 +2315,23 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6" t="n">
+      <c r="D72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6" t="n">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="n">
         <f aca="false">E72-F72</f>
         <v>3</v>
       </c>
@@ -2388,25 +2341,25 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="n">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="n">
         <f aca="false">SUM(E4:E64)</f>
-        <v>190</v>
-      </c>
-      <c r="F73" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="F73" s="7" t="n">
         <f aca="false">SUM(F4:F64)</f>
-        <v>99</v>
-      </c>
-      <c r="G73" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="G73" s="7" t="n">
         <f aca="false">SUM(G4:G64)</f>
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H73" s="10" t="n">
         <f aca="false">(F73/(F73+G73))</f>
-        <v>0.466981132075472</v>
+        <v>0.518691588785047</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3364,39 +3317,39 @@
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="3" t="n">
         <f aca="false">Feuil1!E73</f>
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="3" t="n">
         <f aca="false">Feuil1!F73</f>
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="3" t="n">
         <f aca="false">Feuil1!G73</f>
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -499,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,14 +1300,16 @@
       <c r="E31" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="G31" s="7" t="n">
         <f aca="false">E31-F31</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9" t="n">
         <f aca="false">(F31/(F31+G31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,14 +1328,16 @@
       <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="G32" s="7" t="n">
         <f aca="false">E32-F32</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H32" s="9" t="n">
         <f aca="false">(F32/(F32+G32))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1378,12 +1382,12 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="n">
         <f aca="false">E34-F34</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">(F34/(F34+G34))</f>
@@ -1545,16 +1549,18 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G41" s="7" t="n">
         <f aca="false">E41-F41</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="9" t="n">
         <f aca="false">(F41/(F41+G41))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1571,16 +1577,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G42" s="7" t="n">
         <f aca="false">E42-F42</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="9" t="n">
         <f aca="false">(F42/(F42+G42))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1599,14 +1607,16 @@
       <c r="E43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G43" s="7" t="n">
         <f aca="false">E43-F43</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="9" t="n">
         <f aca="false">(F43/(F43+G43))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,14 +1683,15 @@
       <c r="E47" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7" t="n">
+        <v>20</v>
+      </c>
       <c r="G47" s="7" t="n">
-        <f aca="false">E47-F47</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="9" t="n">
         <f aca="false">(F47/(F47+G47))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1699,14 +1710,15 @@
       <c r="E48" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="G48" s="7" t="n">
-        <f aca="false">E48-F48</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="9" t="n">
         <f aca="false">(F48/(F48+G48))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2040,14 +2052,16 @@
       <c r="E61" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G61" s="7" t="n">
         <f aca="false">E61-F61</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="9" t="n">
         <f aca="false">(F61/(F61+G61))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2347,19 +2361,19 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="n">
         <f aca="false">SUM(E4:E64)</f>
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F73" s="7" t="n">
         <f aca="false">SUM(F4:F64)</f>
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="G73" s="7" t="n">
         <f aca="false">SUM(G4:G64)</f>
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H73" s="10" t="n">
         <f aca="false">(F73/(F73+G73))</f>
-        <v>0.518691588785047</v>
+        <v>0.685258964143426</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3310,7 +3324,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3341,7 @@
       </c>
       <c r="B2" s="3" t="n">
         <f aca="false">Feuil1!E73</f>
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3350,7 @@
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">Feuil1!F73</f>
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,7 +3359,7 @@
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">Feuil1!G73</f>
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="105">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -258,6 +258,75 @@
   </si>
   <si>
     <t xml:space="preserve">Model VcoureurCategorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_temps_coureur_etape_equipe_coureur_categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_classement_categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_classement_categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model ClassementCategorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model ClassementCategorieEquipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement par categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import etapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import resultat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d’import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Import Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilometrage sur les componsant joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilometrage sur les model joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generer categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate_categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETU001845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETU001846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generere categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETU001847</t>
   </si>
   <si>
     <t xml:space="preserve">*Valeur en Minutes</t>
@@ -277,7 +346,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -314,6 +383,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +485,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -499,8 +586,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2148,7 +2235,7 @@
       <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -2354,60 +2441,816 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7" t="n">
-        <f aca="false">SUM(E4:E64)</f>
-        <v>198</v>
-      </c>
-      <c r="F73" s="7" t="n">
-        <f aca="false">SUM(F4:F64)</f>
-        <v>172</v>
-      </c>
+    <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" s="10"/>
       <c r="G73" s="7" t="n">
-        <f aca="false">SUM(G4:G64)</f>
-        <v>79</v>
-      </c>
-      <c r="H73" s="10" t="n">
+        <f aca="false">E73-F73</f>
+        <v>5</v>
+      </c>
+      <c r="H73" s="9" t="n">
         <f aca="false">(F73/(F73+G73))</f>
-        <v>0.685258964143426</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="n">
+        <f aca="false">E74-F74</f>
+        <v>5</v>
+      </c>
+      <c r="H74" s="9" t="n">
+        <f aca="false">(F74/(F74+G74))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7" t="n">
+        <f aca="false">E75-F75</f>
+        <v>5</v>
+      </c>
+      <c r="H75" s="9" t="n">
+        <f aca="false">(F75/(F75+G75))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7" t="n">
+        <f aca="false">E76-F76</f>
+        <v>3</v>
+      </c>
+      <c r="H76" s="9" t="n">
+        <f aca="false">(F76/(F76+G76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="7" t="n">
+        <f aca="false">E77-F77</f>
+        <v>3</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <f aca="false">(F77/(F77+G77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="n">
+        <f aca="false">E78-F78</f>
+        <v>4</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <f aca="false">(F78/(F78+G78))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="n">
+        <f aca="false">E79-F79</f>
+        <v>4</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <f aca="false">(F79/(F79+G79))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="7" t="n">
+        <f aca="false">E80-F80</f>
+        <v>3</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <f aca="false">(F80/(F80+G80))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7" t="n">
+        <f aca="false">E81-F81</f>
+        <v>5</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <f aca="false">(F81/(F81+G81))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7" t="n">
+        <f aca="false">E82-F82</f>
+        <v>10</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <f aca="false">(F82/(F82+G82))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7" t="n">
+        <f aca="false">E83-F83</f>
+        <v>5</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <f aca="false">(F83/(F83+G83))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="7" t="n">
+        <f aca="false">E84-F84</f>
+        <v>5</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <f aca="false">(F84/(F84+G84))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7" t="n">
+        <f aca="false">E85-F85</f>
+        <v>3</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <f aca="false">(F85/(F85+G85))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7" t="n">
+        <f aca="false">E86-F86</f>
+        <v>3</v>
+      </c>
+      <c r="H86" s="9" t="n">
+        <f aca="false">(F86/(F86+G86))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7" t="n">
+        <f aca="false">E87-F87</f>
+        <v>3</v>
+      </c>
+      <c r="H87" s="9" t="n">
+        <f aca="false">(F87/(F87+G87))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7" t="n">
+        <f aca="false">E88-F88</f>
+        <v>5</v>
+      </c>
+      <c r="H88" s="9" t="n">
+        <f aca="false">(F88/(F88+G88))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="n">
+        <f aca="false">E89-F89</f>
+        <v>5</v>
+      </c>
+      <c r="H89" s="9" t="n">
+        <f aca="false">(F89/(F89+G89))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="7" t="n">
+        <f aca="false">E90-F90</f>
+        <v>5</v>
+      </c>
+      <c r="H90" s="9" t="n">
+        <f aca="false">(F90/(F90+G90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7" t="n">
+        <f aca="false">E91-F91</f>
+        <v>5</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <f aca="false">(F91/(F91+G91))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="n">
+        <f aca="false">E92-F92</f>
+        <v>5</v>
+      </c>
+      <c r="H92" s="9" t="n">
+        <f aca="false">(F92/(F92+G92))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7" t="n">
+        <f aca="false">E93-F93</f>
+        <v>5</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <f aca="false">(F93/(F93+G93))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="n">
+        <f aca="false">E94-F94</f>
+        <v>5</v>
+      </c>
+      <c r="H94" s="9" t="n">
+        <f aca="false">(F94/(F94+G94))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="n">
+        <f aca="false">E95-F95</f>
+        <v>3</v>
+      </c>
+      <c r="H95" s="9" t="n">
+        <f aca="false">(F95/(F95+G95))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="n">
+        <f aca="false">E96-F96</f>
+        <v>2</v>
+      </c>
+      <c r="H96" s="9" t="n">
+        <f aca="false">(F96/(F96+G96))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7" t="n">
+        <f aca="false">E97-F97</f>
+        <v>5</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <f aca="false">(F97/(F97+G97))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="7" t="n">
+        <f aca="false">E98-F98</f>
+        <v>4</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <f aca="false">(F98/(F98+G98))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7" t="n">
+        <f aca="false">E99-F99</f>
+        <v>10</v>
+      </c>
+      <c r="H99" s="9" t="n">
+        <f aca="false">(F99/(F99+G99))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="0"/>
+      <c r="G100" s="7" t="n">
+        <f aca="false">E100-F100</f>
+        <v>2</v>
+      </c>
+      <c r="H100" s="9" t="n">
+        <f aca="false">(F100/(F100+G100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" s="7" t="n">
+        <f aca="false">E101-F101</f>
+        <v>2</v>
+      </c>
+      <c r="H101" s="9" t="n">
+        <f aca="false">(F101/(F101+G101))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" s="7" t="n">
+        <f aca="false">E102-F102</f>
+        <v>5</v>
+      </c>
+      <c r="H102" s="9" t="n">
+        <f aca="false">(F102/(F102+G102))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="H103" s="9" t="e">
+        <f aca="false">(F103/(F103+G103))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="n">
+        <f aca="false">SUM(E4:E104)</f>
+        <v>363</v>
+      </c>
+      <c r="F105" s="7" t="n">
+        <f aca="false">SUM(F4:F104)</f>
+        <v>203</v>
+      </c>
+      <c r="G105" s="7" t="n">
+        <f aca="false">SUM(G4:G104)</f>
+        <v>227</v>
+      </c>
+      <c r="H105" s="13" t="n">
+        <f aca="false">(F105/(F105+G105))</f>
+        <v>0.472093023255814</v>
+      </c>
+    </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3332,39 +4175,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>80</v>
+      <c r="A2" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="n">
-        <f aca="false">Feuil1!E73</f>
-        <v>198</v>
+        <f aca="false">Feuil1!E105</f>
+        <v>363</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
-        <f aca="false">Feuil1!F73</f>
-        <v>172</v>
+        <f aca="false">Feuil1!F105</f>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
-        <f aca="false">Feuil1!G73</f>
-        <v>79</v>
+        <f aca="false">Feuil1!G105</f>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -586,8 +586,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H109" activeCellId="0" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1471,14 +1471,16 @@
       <c r="E34" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G34" s="7" t="n">
         <f aca="false">E34-F34</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">(F34/(F34+G34))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3118,13 +3120,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="10" t="s">
@@ -3144,22 +3146,22 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F100" s="0"/>
+      <c r="E100" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="10"/>
       <c r="G100" s="7" t="n">
         <f aca="false">E100-F100</f>
         <v>2</v>
@@ -3170,21 +3172,22 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E101" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="E101" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="7"/>
       <c r="G101" s="7" t="n">
         <f aca="false">E101-F101</f>
         <v>2</v>
@@ -3195,21 +3198,22 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E102" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="E102" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" s="7"/>
       <c r="G102" s="7" t="n">
         <f aca="false">E102-F102</f>
         <v>5</v>
@@ -3220,15 +3224,28 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
       <c r="H103" s="9" t="e">
         <f aca="false">(F103/(F103+G103))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
@@ -3240,15 +3257,15 @@
       </c>
       <c r="F105" s="7" t="n">
         <f aca="false">SUM(F4:F104)</f>
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G105" s="7" t="n">
         <f aca="false">SUM(G4:G104)</f>
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H105" s="13" t="n">
         <f aca="false">(F105/(F105+G105))</f>
-        <v>0.472093023255814</v>
+        <v>0.483720930232558</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4193,7 +4210,7 @@
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">Feuil1!F105</f>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4219,7 @@
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">Feuil1!G105</f>
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -586,8 +586,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H109" activeCellId="0" sqref="H109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,15 +1472,14 @@
         <v>10</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G34" s="7" t="n">
-        <f aca="false">E34-F34</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H34" s="9" t="n">
         <f aca="false">(F34/(F34+G34))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3257,15 +3256,15 @@
       </c>
       <c r="F105" s="7" t="n">
         <f aca="false">SUM(F4:F104)</f>
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="G105" s="7" t="n">
         <f aca="false">SUM(G4:G104)</f>
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H105" s="13" t="n">
         <f aca="false">(F105/(F105+G105))</f>
-        <v>0.483720930232558</v>
+        <v>0.598148148148148</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4210,7 +4209,7 @@
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">Feuil1!F105</f>
-        <v>208</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,7 +4218,7 @@
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">Feuil1!G105</f>
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -346,7 +346,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -383,12 +383,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -446,7 +440,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,18 +479,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2329,7 +2311,7 @@
       <c r="E68" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G68" s="7" t="n">
@@ -2443,22 +2425,22 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F73" s="10"/>
+      <c r="D73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7" t="n">
         <f aca="false">E73-F73</f>
         <v>5</v>
@@ -2475,7 +2457,7 @@
       <c r="B74" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -2501,10 +2483,10 @@
       <c r="B75" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="7" t="n">
@@ -2550,19 +2532,19 @@
       <c r="A77" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="10" t="n">
+      <c r="D77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="7" t="n">
         <f aca="false">E77-F77</f>
         <v>3</v>
@@ -2608,7 +2590,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="7" t="n">
@@ -2625,22 +2607,22 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="10" t="n">
+      <c r="E80" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F80" s="10"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="7" t="n">
         <f aca="false">E80-F80</f>
         <v>3</v>
@@ -2660,7 +2642,7 @@
       <c r="C81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="7" t="n">
@@ -2712,7 +2694,7 @@
       <c r="C83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="7" t="n">
@@ -2732,19 +2714,19 @@
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F84" s="10"/>
+      <c r="E84" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7" t="n">
         <f aca="false">E84-F84</f>
         <v>5</v>
@@ -2764,7 +2746,7 @@
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="7" t="n">
@@ -2816,7 +2798,7 @@
       <c r="C87" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="7" t="n">
@@ -2868,7 +2850,7 @@
       <c r="C89" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E89" s="7" t="n">
@@ -2888,7 +2870,7 @@
       <c r="A90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -2897,10 +2879,10 @@
       <c r="D90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F90" s="10"/>
+      <c r="E90" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7" t="n">
         <f aca="false">E90-F90</f>
         <v>5</v>
@@ -2920,7 +2902,7 @@
       <c r="C91" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="7" t="n">
@@ -2966,13 +2948,13 @@
       <c r="A93" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E93" s="7" t="n">
@@ -3024,7 +3006,7 @@
       <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="7" t="n">
@@ -3076,7 +3058,7 @@
       <c r="C97" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="7" t="n">
@@ -3093,22 +3075,22 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="10" t="n">
+      <c r="E98" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="7" t="n">
         <f aca="false">E98-F98</f>
         <v>4</v>
@@ -3119,16 +3101,16 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E99" s="7" t="n">
@@ -3154,13 +3136,13 @@
       <c r="C100" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F100" s="10"/>
+      <c r="E100" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7" t="n">
         <f aca="false">E100-F100</f>
         <v>2</v>
@@ -3180,7 +3162,7 @@
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="7" t="n">
@@ -3206,7 +3188,7 @@
       <c r="C102" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="n">
@@ -3223,9 +3205,9 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -3262,7 +3244,7 @@
         <f aca="false">SUM(G4:G104)</f>
         <v>217</v>
       </c>
-      <c r="H105" s="13" t="n">
+      <c r="H105" s="10" t="n">
         <f aca="false">(F105/(F105+G105))</f>
         <v>0.598148148148148</v>
       </c>
@@ -4195,7 +4177,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="3" t="n">
@@ -4204,7 +4186,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
@@ -4213,7 +4195,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="n">

--- a/Timesheet-evaluation.xlsx
+++ b/Timesheet-evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
   <si>
     <t xml:space="preserve">ETU001844</t>
   </si>
@@ -206,54 +206,57 @@
     <t xml:space="preserve">TypeScript</t>
   </si>
   <si>
+    <t xml:space="preserve">Integration Equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement par equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_coureur_point_etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_v_equipe_point_etape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model EquipePointEtape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model CoureurPointEtape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement par equipe par etape query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classement par courseur par etape query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global schema setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Codegen setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Global</t>
+  </si>
+  <si>
     <t xml:space="preserve">classement generale</t>
   </si>
   <si>
-    <t xml:space="preserve">Integration Equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classement general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classement par equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create_v_coureur_point_etape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create_v_equipe_point_etape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model EquipePointEtape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model CoureurPointEtape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classement par equipe par etape query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classement par courseur par etape query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global schema setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend Codegen setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend Global</t>
-  </si>
-  <si>
     <t xml:space="preserve">classement generale par etape</t>
   </si>
   <si>
     <t xml:space="preserve">Integration global</t>
   </si>
   <si>
+    <t xml:space="preserve">classement generale par equipe</t>
+  </si>
+  <si>
     <t xml:space="preserve">create_v_coureur_categorie</t>
   </si>
   <si>
@@ -317,16 +320,34 @@
     <t xml:space="preserve">generate_categorie</t>
   </si>
   <si>
-    <t xml:space="preserve">ETU001845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETU001846</t>
-  </si>
-  <si>
     <t xml:space="preserve">Generere categorie</t>
   </si>
   <si>
-    <t xml:space="preserve">ETU001847</t>
+    <t xml:space="preserve">create_penalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter_table_points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Penalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add_penalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List_penalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove_penalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrontAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repo git : https://github.com/tonymushah/evaluation-juin-2024-1</t>
   </si>
   <si>
     <t xml:space="preserve">*Valeur en Minutes</t>
@@ -440,7 +461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +499,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G117" activeCellId="0" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,14 +1505,16 @@
       <c r="E35" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G35" s="7" t="n">
         <f aca="false">E35-F35</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="9" t="n">
         <f aca="false">(F35/(F35+G35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1506,14 +1533,16 @@
       <c r="E36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G36" s="7" t="n">
         <f aca="false">E36-F36</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="9" t="n">
         <f aca="false">(F36/(F36+G36))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1532,14 +1561,15 @@
       <c r="E37" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="G37" s="7" t="n">
-        <f aca="false">E37-F37</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="9" t="n">
         <f aca="false">(F37/(F37+G37))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1558,14 +1588,16 @@
       <c r="E38" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G38" s="7" t="n">
         <f aca="false">E38-F38</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="9" t="n">
         <f aca="false">(F38/(F38+G38))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,21 +1628,39 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <f aca="false">E40-F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <f aca="false">(F40/(F40+G40))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>53</v>
@@ -1638,7 +1688,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>53</v>
@@ -1647,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7" t="n">
         <f aca="false">E42-F42</f>
@@ -1663,10 +1713,10 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>53</v>
@@ -1694,7 +1744,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>53</v>
@@ -1706,10 +1756,9 @@
         <v>2</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G44" s="7" t="n">
-        <f aca="false">E44-F44</f>
         <v>0</v>
       </c>
       <c r="H44" s="9" t="n">
@@ -1718,45 +1767,79 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
+      <c r="A45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <f aca="false">(F45/(F45+G45))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="7" t="n">
+        <f aca="false">E46-F46</f>
+        <v>5</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <f aca="false">(F46/(F46+G46))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G47" s="7" t="n">
+        <f aca="false">E47-F47</f>
         <v>0</v>
       </c>
       <c r="H47" s="9" t="n">
@@ -1766,24 +1849,25 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G48" s="7" t="n">
+        <f aca="false">E48-F48</f>
         <v>0</v>
       </c>
       <c r="H48" s="9" t="n">
@@ -1796,7 +1880,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>60</v>
@@ -1807,22 +1891,24 @@
       <c r="E49" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G49" s="7" t="n">
         <f aca="false">E49-F49</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9" t="n">
         <f aca="false">(F49/(F49+G49))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>60</v>
@@ -1845,10 +1931,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>60</v>
@@ -1871,10 +1957,10 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>60</v>
@@ -1897,10 +1983,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>60</v>
@@ -1923,10 +2009,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>60</v>
@@ -1947,119 +2033,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G55" s="7" t="n">
-        <f aca="false">E55-F55</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H55" s="9" t="n">
         <f aca="false">(F55/(F55+G55))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G56" s="7" t="n">
         <f aca="false">E56-F56</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H56" s="9" t="n">
         <f aca="false">(F56/(F56+G56))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="7" t="n">
         <f aca="false">E57-F57</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H57" s="9" t="n">
         <f aca="false">(F57/(F57+G57))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G58" s="7" t="n">
         <f aca="false">E58-F58</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58" s="9" t="n">
         <f aca="false">(F58/(F58+G58))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>0</v>
@@ -2068,9 +2161,10 @@
         <v>4</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="7" t="n">
+        <f aca="false">E59-F59</f>
         <v>0</v>
       </c>
       <c r="H59" s="9" t="n">
@@ -2080,22 +2174,22 @@
     </row>
     <row r="60" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="7" t="n">
         <f aca="false">E60-F60</f>
@@ -2108,10 +2202,10 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>28</v>
@@ -2120,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61" s="7" t="n">
         <f aca="false">E61-F61</f>
@@ -2136,13 +2230,13 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>0</v>
@@ -2164,74 +2258,74 @@
     </row>
     <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="G63" s="7" t="n">
-        <f aca="false">E63-F63</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="9" t="n">
         <f aca="false">(F63/(F63+G63))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="G64" s="7" t="n">
-        <f aca="false">E64-F64</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H64" s="9" t="n">
-        <f aca="false">(F64/(F64+G64))</f>
-        <v>0</v>
+        <f aca="false">(F63/(F63+G64))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65" s="7" t="n">
         <f aca="false">E65-F65</f>
@@ -2242,12 +2336,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>38</v>
-      </c>
+    <row r="66" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>60</v>
@@ -2256,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G66" s="7" t="n">
         <f aca="false">E66-F66</f>
@@ -2270,26 +2362,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G67" s="7" t="n">
+        <f aca="false">E67-F67</f>
         <v>0</v>
       </c>
       <c r="H67" s="9" t="n">
@@ -2298,78 +2391,85 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
+      <c r="A68" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B68" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7" t="n">
-        <v>0</v>
+        <f aca="false">E68-F68</f>
+        <v>3</v>
       </c>
       <c r="H68" s="9" t="n">
-        <f aca="false">(F67/(F67+G68))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f aca="false">(F68/(F68+G68))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G69" s="7" t="n">
         <f aca="false">E69-F69</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" s="9" t="n">
         <f aca="false">(F69/(F69+G69))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
+      <c r="A70" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B70" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G70" s="7" t="n">
         <f aca="false">E70-F70</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H70" s="9" t="n">
         <f aca="false">(F70/(F70+G70))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2377,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>12</v>
@@ -2386,16 +2486,18 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G71" s="7" t="n">
         <f aca="false">E71-F71</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71" s="9" t="n">
         <f aca="false">(F71/(F71+G71))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2403,7 +2505,7 @@
         <v>26</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>28</v>
@@ -2414,103 +2516,111 @@
       <c r="E72" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G72" s="7" t="n">
         <f aca="false">E72-F72</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H72" s="9" t="n">
         <f aca="false">(F72/(F72+G72))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F73" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G73" s="7" t="n">
         <f aca="false">E73-F73</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73" s="9" t="n">
         <f aca="false">(F73/(F73+G73))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F74" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="G74" s="7" t="n">
         <f aca="false">E74-F74</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="n">
         <f aca="false">(F74/(F74+G74))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="G75" s="7" t="n">
         <f aca="false">E75-F75</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H75" s="9" t="n">
         <f aca="false">(F75/(F75+G75))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>0</v>
@@ -2528,26 +2638,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="n">
         <f aca="false">E77-F77</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77" s="9" t="n">
         <f aca="false">(F77/(F77+G77))</f>
@@ -2556,10 +2666,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>28</v>
@@ -2568,24 +2678,26 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F78" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="G78" s="7" t="n">
         <f aca="false">E78-F78</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H78" s="9" t="n">
         <f aca="false">(F78/(F78+G78))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>28</v>
@@ -2594,76 +2706,81 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>20</v>
+      </c>
       <c r="G79" s="7" t="n">
-        <f aca="false">E79-F79</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79" s="9" t="n">
         <f aca="false">(F79/(F79+G79))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G80" s="7" t="n">
         <f aca="false">E80-F80</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" s="9" t="n">
         <f aca="false">(F80/(F80+G80))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G81" s="7" t="n">
         <f aca="false">E81-F81</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H81" s="9" t="n">
         <f aca="false">(F81/(F81+G81))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>28</v>
@@ -2672,24 +2789,26 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G82" s="7" t="n">
         <f aca="false">E82-F82</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H82" s="9" t="n">
         <f aca="false">(F82/(F82+G82))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>28</v>
@@ -2698,27 +2817,29 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G83" s="7" t="n">
         <f aca="false">E83-F83</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H83" s="9" t="n">
         <f aca="false">(F83/(F83+G83))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>0</v>
@@ -2726,103 +2847,111 @@
       <c r="E84" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G84" s="7" t="n">
         <f aca="false">E84-F84</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H84" s="9" t="n">
         <f aca="false">(F84/(F84+G84))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G85" s="7" t="n">
         <f aca="false">E85-F85</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" s="9" t="n">
         <f aca="false">(F85/(F85+G85))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F86" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G86" s="7" t="n">
         <f aca="false">E86-F86</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" s="9" t="n">
         <f aca="false">(F86/(F86+G86))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F87" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G87" s="7" t="n">
         <f aca="false">E87-F87</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" s="9" t="n">
         <f aca="false">(F87/(F87+G87))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>0</v>
@@ -2830,25 +2959,27 @@
       <c r="E88" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G88" s="7" t="n">
         <f aca="false">E88-F88</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H88" s="9" t="n">
         <f aca="false">(F88/(F88+G88))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>0</v>
@@ -2856,25 +2987,27 @@
       <c r="E89" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G89" s="7" t="n">
         <f aca="false">E89-F89</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H89" s="9" t="n">
         <f aca="false">(F89/(F89+G89))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>59</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>0</v>
@@ -2882,22 +3015,24 @@
       <c r="E90" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F90" s="7"/>
+      <c r="F90" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G90" s="7" t="n">
         <f aca="false">E90-F90</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H90" s="9" t="n">
         <f aca="false">(F90/(F90+G90))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>53</v>
@@ -2906,50 +3041,50 @@
         <v>0</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7" t="n">
         <f aca="false">E91-F91</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="9" t="n">
         <f aca="false">(F91/(F91+G91))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="n">
         <f aca="false">E92-F92</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H92" s="9" t="n">
         <f aca="false">(F92/(F92+G92))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="27.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>60</v>
@@ -2972,10 +3107,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>60</v>
@@ -2984,12 +3119,12 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7" t="n">
         <f aca="false">E94-F94</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H94" s="9" t="n">
         <f aca="false">(F94/(F94+G94))</f>
@@ -2998,24 +3133,24 @@
     </row>
     <row r="95" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="n">
         <f aca="false">E95-F95</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H95" s="9" t="n">
         <f aca="false">(F95/(F95+G95))</f>
@@ -3024,10 +3159,10 @@
     </row>
     <row r="96" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>28</v>
@@ -3050,24 +3185,24 @@
     </row>
     <row r="97" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="n">
         <f aca="false">E97-F97</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H97" s="9" t="n">
         <f aca="false">(F97/(F97+G97))</f>
@@ -3076,10 +3211,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>60</v>
@@ -3088,12 +3223,12 @@
         <v>0</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="n">
         <f aca="false">E98-F98</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H98" s="9" t="n">
         <f aca="false">(F98/(F98+G98))</f>
@@ -3102,170 +3237,392 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F99" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="G99" s="7" t="n">
         <f aca="false">E99-F99</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H99" s="9" t="n">
         <f aca="false">(F99/(F99+G99))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E100" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F100" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="G100" s="7" t="n">
         <f aca="false">E100-F100</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" s="9" t="n">
         <f aca="false">(F100/(F100+G100))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>53</v>
+      <c r="A101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="G101" s="7" t="n">
         <f aca="false">E101-F101</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" s="9" t="n">
         <f aca="false">(F101/(F101+G101))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F102" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G102" s="7" t="n">
         <f aca="false">E102-F102</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H102" s="9" t="n">
         <f aca="false">(F102/(F102+G102))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="9" t="e">
+      <c r="A103" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="7" t="n">
+        <f aca="false">E103-F103</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="9" t="n">
         <f aca="false">(F103/(F103+G103))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="A104" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="7" t="n">
+        <f aca="false">E104-F104</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="9" t="n">
+        <f aca="false">(F104/(F104+G104))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="E105" s="7" t="n">
-        <f aca="false">SUM(E4:E104)</f>
-        <v>363</v>
-      </c>
-      <c r="F105" s="7" t="n">
-        <f aca="false">SUM(F4:F104)</f>
-        <v>323</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F105" s="7"/>
       <c r="G105" s="7" t="n">
-        <f aca="false">SUM(G4:G104)</f>
-        <v>217</v>
-      </c>
-      <c r="H105" s="10" t="n">
+        <f aca="false">E105-F105</f>
+        <v>10</v>
+      </c>
+      <c r="H105" s="9" t="n">
         <f aca="false">(F105/(F105+G105))</f>
-        <v>0.598148148148148</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7" t="n">
+        <f aca="false">E106-F106</f>
+        <v>5</v>
+      </c>
+      <c r="H106" s="9" t="n">
+        <f aca="false">(F106/(F106+G106))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7" t="n">
+        <f aca="false">E107-F107</f>
+        <v>5</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <f aca="false">(F107/(F107+G107))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="n">
+        <f aca="false">E108-F108</f>
+        <v>5</v>
+      </c>
+      <c r="H108" s="9" t="n">
+        <f aca="false">(F108/(F108+G108))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="n">
+        <f aca="false">SUM(E4:E108)</f>
+        <v>412</v>
+      </c>
+      <c r="F109" s="7" t="n">
+        <f aca="false">SUM(F4:F108)</f>
+        <v>513</v>
+      </c>
+      <c r="G109" s="7" t="n">
+        <f aca="false">SUM(G4:G108)</f>
+        <v>99</v>
+      </c>
+      <c r="H109" s="11" t="n">
+        <f aca="false">(F109/(F109+G109))</f>
+        <v>0.838235294117647</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0"/>
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3" t="n">
+        <f aca="false">Feuil1!E109</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="3" t="n">
+        <f aca="false">Feuil1!F109</f>
+        <v>513</v>
+      </c>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="3" t="n">
+        <f aca="false">Feuil1!G109</f>
+        <v>99</v>
+      </c>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
+      <c r="H115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0"/>
+      <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
+      <c r="H122" s="0"/>
+    </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4148,6 +4505,9 @@
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A110" r:id="rId1" display="https://github.com/tonymushah/evaluation-juin-2024-1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4163,51 +4523,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <f aca="false">Feuil1!E105</f>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <f aca="false">Feuil1!F105</f>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <f aca="false">Feuil1!G105</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
